--- a/dados/like_parts.xlsx
+++ b/dados/like_parts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366761370-controle-jfa-resistente-agua-automotivo-longa-distncia-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9c7a548-17bf-435c-8efc-81a4bad3cef4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3366761370-controle-jfa-resistente-agua-automotivo-longa-distncia-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba374c5d-526e-412d-b181-3ede4bb317c6</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704192981-controle-longa-distncia-jfa-para-radio-player-ate-1200m-cor-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9c7a548-17bf-435c-8efc-81a4bad3cef4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3704192981-controle-longa-distncia-jfa-para-radio-player-ate-1200m-cor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba374c5d-526e-412d-b181-3ede4bb317c6</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271150029-voltimetro-sequenciador-medidor-bateria-jfa-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca4e1271-4437-4570-bfe0-bd243e99a362</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271150029-voltimetro-sequenciador-medidor-bateria-jfa-digital-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd48b0de-101f-4e12-a62f-6e638a3eb9c0</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374018400-fonte-carga-inteligente-digital-jfa-200a-storm-lite-bateria-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98990446-e58a-41f6-908a-68824c7cb4cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3374018400-fonte-carga-inteligente-digital-jfa-200a-storm-lite-bateria-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45c8d989-0b22-4b69-9adc-3ab95f3144da</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704192955-controle-jfa-longa-distncia-1200m-blister-som-carro-cores-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98990446-e58a-41f6-908a-68824c7cb4cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3704192955-controle-jfa-longa-distncia-1200m-blister-som-carro-cores-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7e90822-42bf-4d9d-aa13-7b13138493c8</t>
         </is>
       </c>
     </row>
@@ -596,17 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3270259491-controle-som-automotivo-jfa-prova-dagua-som-carro-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2efd4709-c369-4338-acc3-1668a854f49b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3270259491-controle-som-automotivo-jfa-prova-dagua-som-carro-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83f5c8ea-af50-45fb-b37c-ae64a6de4e8b</t>
         </is>
       </c>
     </row>
@@ -621,17 +671,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271227179-fonte-carga-bob-jfa-90a-storm-digital-bivolt-caixa-bob-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D32bcdb2a-9a19-429d-b61c-cf2ce9e143bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271227179-fonte-carga-bob-jfa-90a-storm-digital-bivolt-caixa-bob-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83f5c8ea-af50-45fb-b37c-ae64a6de4e8b</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164858704-fonte-digital-carga-inteligente-jfa-storm-70a-automotiva-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31cf593d-01ff-4c47-8f56-cd8a6bbf6fdb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164858704-fonte-digital-carga-inteligente-jfa-storm-70a-automotiva-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D407aac31-30a9-48b8-8f72-eee3d7de06ed</t>
         </is>
       </c>
     </row>
@@ -671,17 +741,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311410749-fonte-carregador-inteligente-jfa-60a-storm-lite-som-carro-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d3353f3-3780-4603-aeea-05180db40543</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311410749-fonte-carregador-inteligente-jfa-60a-storm-lite-som-carro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c4989c7-cb07-43d4-98a6-c4bcd8eaa920</t>
         </is>
       </c>
     </row>
@@ -696,17 +776,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271229075-fonte-jfa-caixa-bob-90a-digital-bob-storm-bivolt-som-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c35ec5d-8bed-420b-9566-7cc1adabd495</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271229075-fonte-jfa-caixa-bob-90a-digital-bob-storm-bivolt-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76f3b9e5-24d5-4bd4-8f4a-e2017348e562</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271437281-fonte-inteligente-jfa-60a-storm-lite-som-automotivo-digital-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c35ec5d-8bed-420b-9566-7cc1adabd495</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271437281-fonte-inteligente-jfa-60a-storm-lite-som-automotivo-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76f3b9e5-24d5-4bd4-8f4a-e2017348e562</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271245529-voltimetro-digital-som-jfa-alta-baixa-voltagem-automotivo-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2dd58bc7-7825-4c8a-a83a-b397edbcc514</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271245529-voltimetro-digital-som-jfa-alta-baixa-voltagem-automotivo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f5f4522-0aeb-444e-a005-713e3360ee20</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3372725238-fonte-jfa-120a-storm-lite-inteligente-digital-som-carro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deeb39105-91c4-49b6-b48a-6efaa3306aa8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3372725238-fonte-jfa-120a-storm-lite-inteligente-digital-som-carro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e46edb2-2c9b-4061-9172-089318722e07</t>
         </is>
       </c>
     </row>
@@ -796,17 +912,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366764234-controle-automotivo-original-aparelho-som-carro-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D170963fe-0499-4735-b913-efbfa99fdcc5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3366764234-controle-automotivo-original-aparelho-som-carro-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83b6a266-abcd-440b-abc0-d1b1a05ad245</t>
         </is>
       </c>
     </row>
@@ -821,17 +943,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3270296455-controle-jfa-aparelho-original-som-carro-automotivo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De73d2ea9-10cd-4292-a8c0-941df66cdd1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3270296455-controle-jfa-aparelho-original-som-carro-automotivo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23ee779a-cab3-4b9e-90eb-9b00639a2964</t>
         </is>
       </c>
     </row>
@@ -846,17 +974,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3373219218-fonte-120a-storm-lite-jfa-carregador-inteligente-digital-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De73d2ea9-10cd-4292-a8c0-941df66cdd1a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3373219218-fonte-120a-storm-lite-jfa-carregador-inteligente-digital-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23ee779a-cab3-4b9e-90eb-9b00639a2964</t>
         </is>
       </c>
     </row>
@@ -871,17 +1009,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3705097723-controle-jfa-longa-distncia-600m-blister-som-carro-cores-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7245fce3-1f88-45c0-9e04-be6bead376ec</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3705097723-controle-jfa-longa-distncia-600m-blister-som-carro-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5f5fd7d2-f8aa-4c8c-9228-17bf52cfe5ed</t>
         </is>
       </c>
     </row>
@@ -896,17 +1040,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164870783-fonte-carregador-inteligente-digital-bateria-jfa-70a-storm-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7ff346ba-b1d0-44d7-a609-51de3ec63427</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164870783-fonte-carregador-inteligente-digital-bateria-jfa-70a-storm-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bf8c3fb-2699-4134-92bc-788afc611698</t>
         </is>
       </c>
     </row>
@@ -921,17 +1075,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271205051-fonte-automotiva-90a-jfa-carregador-bob-storm-digital-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D946d00ba-632c-4073-a731-2ddb300e3f76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271205051-fonte-automotiva-90a-jfa-carregador-bob-storm-digital-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
         </is>
       </c>
     </row>
@@ -946,17 +1110,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3372347132-fonte-storm-lite-jfa-70a-carregador-inteligente-som-carro-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D946d00ba-632c-4073-a731-2ddb300e3f76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3372347132-fonte-storm-lite-jfa-70a-carregador-inteligente-som-carro-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
         </is>
       </c>
     </row>
@@ -971,17 +1145,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374071914-fonte-inteligente-60a-storm-jfa-medidor-bateria-digital-som-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D946d00ba-632c-4073-a731-2ddb300e3f76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3374071914-fonte-inteligente-60a-storm-jfa-medidor-bateria-digital-som-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
         </is>
       </c>
     </row>
@@ -996,17 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597015882-fonte-jfa-storm-lite-60a-carregador-inteligente-som-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D946d00ba-632c-4073-a731-2ddb300e3f76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597015882-fonte-jfa-storm-lite-60a-carregador-inteligente-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1215,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271522267-fonte-70a-storm-lite-jfa-carregador-automotivo-digital-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8690d8db-e58c-4f99-be93-c1cbc1c0fb41</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271522267-fonte-70a-storm-lite-jfa-carregador-automotivo-digital-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128c8506-2568-4297-a8e2-45d69544cc31</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1250,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271777649-fonte-storm-jfa-60a-carregador-inteligente-digital-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8690d8db-e58c-4f99-be93-c1cbc1c0fb41</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271777649-fonte-storm-jfa-60a-carregador-inteligente-digital-som-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128c8506-2568-4297-a8e2-45d69544cc31</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1285,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271503813-fonte-carregador-automotiva-120a-jfa-storm-lite-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd380724-1544-4335-a273-b4f194306a52</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271503813-fonte-carregador-automotiva-120a-jfa-storm-lite-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d37babd-f3e3-4051-9b79-660abc1cab0f</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1320,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271688035-fonte-carregador-storm-lite-bivolt-jfa-200a-digital-som-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd380724-1544-4335-a273-b4f194306a52</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3271688035-fonte-carregador-storm-lite-bivolt-jfa-200a-digital-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d37babd-f3e3-4051-9b79-660abc1cab0f</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1355,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3371177382-fonte-carregador-caixa-bob-120a-jfa-bivolt-bob-storm-som-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd380724-1544-4335-a273-b4f194306a52</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3371177382-fonte-carregador-caixa-bob-120a-jfa-bivolt-bob-storm-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1390,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3371178214-fonte-jfa-carregador-bob-storm-bateria-120a-bivolt-digital-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd380724-1544-4335-a273-b4f194306a52</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3371178214-fonte-jfa-carregador-bob-storm-bateria-120a-bivolt-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
         </is>
       </c>
     </row>
@@ -1171,92 +1425,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374063424-fonte-storm-lite-jfa-200a-carregador-inteligente-som-carro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd380724-1544-4335-a273-b4f194306a52</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fonte Carregador 60a Storm Jfa Inteligente Digital</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271728475-fonte-carregador-60a-storm-jfa-inteligente-digital-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b3644b9-5d46-4263-ad39-5f5d3f6ef96f</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fonte 60a Storm Carregador Inteligente Medidor Jfa Digital</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374089434-fonte-60a-storm-carregador-inteligente-medidor-jfa-digital-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b3644b9-5d46-4263-ad39-5f5d3f6ef96f</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Controle Para Som K600 Jfa Distância Até 600 Metros Cores</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>62.96</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3705123603-controle-para-som-k600-jfa-distncia-ate-600-metros-cores-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfaf61be1-0754-47b5-b081-5513f17e86fb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3374063424-fonte-storm-lite-jfa-200a-carregador-inteligente-som-carro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
         </is>
       </c>
     </row>

--- a/dados/like_parts.xlsx
+++ b/dados/like_parts.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Jfa Resistente Água Automotivo Longa Distância</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>83.63</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366761370-controle-jfa-resistente-agua-automotivo-longa-distncia-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba374c5d-526e-412d-b181-3ede4bb317c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3366761370-controle-jfa-resistente-agua-automotivo-longa-distncia-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38c3b7a9-9e04-403e-ace1-c4940a8f5d59</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Longa Distância Jfa Para Rádio Player Até 1200m Cor</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>79.58</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704192981-controle-longa-distncia-jfa-para-radio-player-ate-1200m-cor-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba374c5d-526e-412d-b181-3ede4bb317c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3704192981-controle-longa-distncia-jfa-para-radio-player-ate-1200m-cor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38c3b7a9-9e04-403e-ace1-c4940a8f5d59</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Voltímetro Sequenciador Medidor Bateria Jfa Digital Som</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>55.9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271150029-voltimetro-sequenciador-medidor-bateria-jfa-digital-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd48b0de-101f-4e12-a62f-6e638a3eb9c0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271150029-voltimetro-sequenciador-medidor-bateria-jfa-digital-som-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De79c8550-5db8-421c-9eb8-add810e87d52</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
           <t>Fonte Carga Inteligente Digital Jfa 200a Storm Lite Bateria</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>754.4400000000001</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -594,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374018400-fonte-carga-inteligente-digital-jfa-200a-storm-lite-bateria-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45c8d989-0b22-4b69-9adc-3ab95f3144da</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3374018400-fonte-carga-inteligente-digital-jfa-200a-storm-lite-bateria-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b9e25a1-6fc8-4cc7-b774-c879e6f9e6e0</t>
         </is>
       </c>
     </row>
@@ -604,13 +604,13 @@
           <t>Controle Jfa Longa Distância 1200m Blister Som Carro Cores</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>61.99</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704192955-controle-jfa-longa-distncia-1200m-blister-som-carro-cores-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7e90822-42bf-4d9d-aa13-7b13138493c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3704192955-controle-jfa-longa-distncia-1200m-blister-som-carro-cores-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b9e25a1-6fc8-4cc7-b774-c879e6f9e6e0</t>
         </is>
       </c>
     </row>
@@ -635,13 +635,13 @@
           <t>Controle Som Automotivo Jfa Prova D'água Som Carro</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>93.17</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3270259491-controle-som-automotivo-jfa-prova-dagua-som-carro-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83f5c8ea-af50-45fb-b37c-ae64a6de4e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3270259491-controle-som-automotivo-jfa-prova-dagua-som-carro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88517a1a-3a06-4056-bb6c-9f75b3bc181d</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
           <t>Fonte Carga Bob Jfa 90a Storm Digital Bivolt Caixa Bob</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>445.19</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -691,7 +691,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271227179-fonte-carga-bob-jfa-90a-storm-digital-bivolt-caixa-bob-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83f5c8ea-af50-45fb-b37c-ae64a6de4e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271227179-fonte-carga-bob-jfa-90a-storm-digital-bivolt-caixa-bob-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D534a102b-8fac-405a-94da-12fe3afe653b</t>
         </is>
       </c>
     </row>
@@ -701,14 +701,14 @@
           <t>Fonte Digital Carga Inteligente Jfa Storm 70a Automotiva</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>519.39</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -726,7 +726,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164858704-fonte-digital-carga-inteligente-jfa-storm-70a-automotiva-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D407aac31-30a9-48b8-8f72-eee3d7de06ed</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164858704-fonte-digital-carga-inteligente-jfa-storm-70a-automotiva-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5011cd7-3b78-4c1a-8602-9b58d978a865</t>
         </is>
       </c>
     </row>
@@ -736,14 +736,14 @@
           <t>Fonte Carregador Inteligente Jfa 60a Storm Lite Som Carro</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>384.16</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -761,7 +761,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311410749-fonte-carregador-inteligente-jfa-60a-storm-lite-som-carro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c4989c7-cb07-43d4-98a6-c4bcd8eaa920</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311410749-fonte-carregador-inteligente-jfa-60a-storm-lite-som-carro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df583df3d-6ac2-4ced-83e8-abe1310ebbb8</t>
         </is>
       </c>
     </row>
@@ -771,14 +771,14 @@
           <t>Fonte Jfa Caixa Bob 90a Digital Bob Storm Bivolt Som</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>445.19</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271229075-fonte-jfa-caixa-bob-90a-digital-bob-storm-bivolt-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76f3b9e5-24d5-4bd4-8f4a-e2017348e562</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271229075-fonte-jfa-caixa-bob-90a-digital-bob-storm-bivolt-som-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df583df3d-6ac2-4ced-83e8-abe1310ebbb8</t>
         </is>
       </c>
     </row>
@@ -806,14 +806,14 @@
           <t>Fonte Inteligente Jfa 60a Storm Lite Som Automotivo Digital</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>384.16</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -831,7 +831,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271437281-fonte-inteligente-jfa-60a-storm-lite-som-automotivo-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76f3b9e5-24d5-4bd4-8f4a-e2017348e562</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271437281-fonte-inteligente-jfa-60a-storm-lite-som-automotivo-digital-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df583df3d-6ac2-4ced-83e8-abe1310ebbb8</t>
         </is>
       </c>
     </row>
@@ -841,13 +841,13 @@
           <t>Voltímetro Digital Som Jfa Alta Baixa Voltagem Automotivo</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>59.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271245529-voltimetro-digital-som-jfa-alta-baixa-voltagem-automotivo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f5f4522-0aeb-444e-a005-713e3360ee20</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271245529-voltimetro-digital-som-jfa-alta-baixa-voltagem-automotivo-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2429f657-df61-43cc-996f-8c736e61148c</t>
         </is>
       </c>
     </row>
@@ -872,14 +872,14 @@
           <t>Fonte Jfa 120a Storm Lite Inteligente Digital Som Carro</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>564.48</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -897,7 +897,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3372725238-fonte-jfa-120a-storm-lite-inteligente-digital-som-carro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e46edb2-2c9b-4061-9172-089318722e07</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3372725238-fonte-jfa-120a-storm-lite-inteligente-digital-som-carro-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62c2acc-9395-413e-a075-c3e1c9e7f198</t>
         </is>
       </c>
     </row>
@@ -907,13 +907,13 @@
           <t xml:space="preserve">Controle Automotivo Original Aparelho Som Carro Jfa </t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>107.04</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366764234-controle-automotivo-original-aparelho-som-carro-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83b6a266-abcd-440b-abc0-d1b1a05ad245</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3366764234-controle-automotivo-original-aparelho-som-carro-jfa-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1e62676f-3d10-467b-b167-71ddf9ed9ba6</t>
         </is>
       </c>
     </row>
@@ -938,13 +938,13 @@
           <t>Controle Jfa Aparelho Original Som Carro Automotivo</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>96.23</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3270296455-controle-jfa-aparelho-original-som-carro-automotivo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23ee779a-cab3-4b9e-90eb-9b00639a2964</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3270296455-controle-jfa-aparelho-original-som-carro-automotivo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1cb1a1d5-5276-49d3-8755-2ed47fba2619</t>
         </is>
       </c>
     </row>
@@ -969,14 +969,14 @@
           <t>Fonte 120a Storm Lite Jfa Carregador Inteligente Digital</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>603.54</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -994,7 +994,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3373219218-fonte-120a-storm-lite-jfa-carregador-inteligente-digital-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23ee779a-cab3-4b9e-90eb-9b00639a2964</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3373219218-fonte-120a-storm-lite-jfa-carregador-inteligente-digital-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcafebd3d-ba17-46a0-8a00-01ae71d58c17</t>
         </is>
       </c>
     </row>
@@ -1004,13 +1004,13 @@
           <t>Controle Jfa Longa Distância 600m Blister Som Carro Cores</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>59.25</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3705097723-controle-jfa-longa-distncia-600m-blister-som-carro-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5f5fd7d2-f8aa-4c8c-9228-17bf52cfe5ed</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3705097723-controle-jfa-longa-distncia-600m-blister-som-carro-cores-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da40b2351-e843-4b81-aaea-38b56ae8dc93</t>
         </is>
       </c>
     </row>
@@ -1035,14 +1035,14 @@
           <t>Fonte Carregador Inteligente Digital Bateria Jfa 70a Storm</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>551.1900000000001</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164870783-fonte-carregador-inteligente-digital-bateria-jfa-70a-storm-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bf8c3fb-2699-4134-92bc-788afc611698</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164870783-fonte-carregador-inteligente-digital-bateria-jfa-70a-storm-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58a58a3a-f963-4707-a32b-74aa3bfbee9d</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1070,14 @@
           <t>Fonte Automotiva 90a Jfa Carregador Bob Storm Digital</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>466.39</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271205051-fonte-automotiva-90a-jfa-carregador-bob-storm-digital-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271205051-fonte-automotiva-90a-jfa-carregador-bob-storm-digital-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D77c4ce65-26dd-4dc8-bb18-9cd50b7844b1</t>
         </is>
       </c>
     </row>
@@ -1105,14 +1105,14 @@
           <t>Fonte Storm Lite Jfa 70a Carregador Inteligente Som Carro</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>457.29</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3372347132-fonte-storm-lite-jfa-70a-carregador-inteligente-som-carro-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3372347132-fonte-storm-lite-jfa-70a-carregador-inteligente-som-carro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D77c4ce65-26dd-4dc8-bb18-9cd50b7844b1</t>
         </is>
       </c>
     </row>
@@ -1140,14 +1140,14 @@
           <t>Fonte Inteligente 60a Storm Jfa Medidor Bateria Digital Som</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>466.39</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374071914-fonte-inteligente-60a-storm-jfa-medidor-bateria-digital-som-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3374071914-fonte-inteligente-60a-storm-jfa-medidor-bateria-digital-som-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D77c4ce65-26dd-4dc8-bb18-9cd50b7844b1</t>
         </is>
       </c>
     </row>
@@ -1175,14 +1175,14 @@
           <t>Fonte Jfa Storm Lite 60a Carregador Inteligente Som</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>410.97</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597015882-fonte-jfa-storm-lite-60a-carregador-inteligente-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4583de3-ce83-4f4f-8eb2-271f073d9dd5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597015882-fonte-jfa-storm-lite-60a-carregador-inteligente-som-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D77c4ce65-26dd-4dc8-bb18-9cd50b7844b1</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
           <t>Fonte 70a Storm Lite Jfa Carregador Automotivo Digital</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>457.29</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271522267-fonte-70a-storm-lite-jfa-carregador-automotivo-digital-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128c8506-2568-4297-a8e2-45d69544cc31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271522267-fonte-70a-storm-lite-jfa-carregador-automotivo-digital-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c5699d9-ffc6-447a-99d7-c46f08b5c282</t>
         </is>
       </c>
     </row>
@@ -1245,14 +1245,14 @@
           <t>Fonte Storm Jfa 60a Carregador Inteligente Digital Som</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>498.19</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271777649-fonte-storm-jfa-60a-carregador-inteligente-digital-som-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128c8506-2568-4297-a8e2-45d69544cc31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271777649-fonte-storm-jfa-60a-carregador-inteligente-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c5699d9-ffc6-447a-99d7-c46f08b5c282</t>
         </is>
       </c>
     </row>
@@ -1280,14 +1280,14 @@
           <t>Fonte Carregador Automotiva 120a Jfa Storm Lite Som</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>603.54</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271503813-fonte-carregador-automotiva-120a-jfa-storm-lite-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d37babd-f3e3-4051-9b79-660abc1cab0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271503813-fonte-carregador-automotiva-120a-jfa-storm-lite-som-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30edff7-6bb9-443e-8d05-9bbe618a7686</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1315,14 @@
           <t>Fonte Carregador Storm Lite Bivolt Jfa 200a Digital Som</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>717.72</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3271688035-fonte-carregador-storm-lite-bivolt-jfa-200a-digital-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d37babd-f3e3-4051-9b79-660abc1cab0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3271688035-fonte-carregador-storm-lite-bivolt-jfa-200a-digital-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30edff7-6bb9-443e-8d05-9bbe618a7686</t>
         </is>
       </c>
     </row>
@@ -1350,14 +1350,14 @@
           <t>Fonte Carregador Caixa Bob 120a Jfa Bivolt Bob Storm Som</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>568.15</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3371177382-fonte-carregador-caixa-bob-120a-jfa-bivolt-bob-storm-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3371177382-fonte-carregador-caixa-bob-120a-jfa-bivolt-bob-storm-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97ef70b8-d392-495c-b883-c0c2f37050aa</t>
         </is>
       </c>
     </row>
@@ -1385,14 +1385,14 @@
           <t xml:space="preserve">Fonte Jfa Carregador Bob Storm Bateria 120a Bivolt Digital </t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>568.15</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3371178214-fonte-jfa-carregador-bob-storm-bateria-120a-bivolt-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3371178214-fonte-jfa-carregador-bob-storm-bateria-120a-bivolt-digital-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97ef70b8-d392-495c-b883-c0c2f37050aa</t>
         </is>
       </c>
     </row>
@@ -1420,14 +1420,14 @@
           <t>Fonte Storm Lite Jfa 200a Carregador Inteligente Som Carro</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>754.4400000000001</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3374063424-fonte-storm-lite-jfa-200a-carregador-inteligente-som-carro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12110376-5d98-426a-85e4-eab02bac372f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3374063424-fonte-storm-lite-jfa-200a-carregador-inteligente-som-carro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97ef70b8-d392-495c-b883-c0c2f37050aa</t>
         </is>
       </c>
     </row>
